--- a/template/sample.xlsx
+++ b/template/sample.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>BBB</t>
+    <t>CCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +369,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
